--- a/data/trans_orig/P14B35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2595285B-6947-4FAB-92A5-18AD203455D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB8B7047-541D-42F8-97D4-864CD6BAF34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D1707D2-BBD5-4E22-8B55-A2ACF8E675AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0E245E4-4A47-45A5-B2F3-C08BA67697B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>21,01%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>78,99%</t>
   </si>
   <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>62,83%</t>
   </si>
   <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,37 +127,37 @@
     <t>21,64%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -181,55 +181,55 @@
     <t>28,65%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>71,35%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -238,73 +238,73 @@
     <t>49,19%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>50,81%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>45,36%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5355FA-3E63-44B7-A596-2ED4CE333E59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7296438-A2CC-437A-AAEA-DD0DBF6B3E86}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6C29BB-4D84-4796-8E4A-37126D8EFA48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41470397-DDE4-4FBB-BB6D-99D0161C973F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2170,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9CAD06-B345-4F01-9F07-ECBC4B7EAC78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D614EB7E-00DE-42AC-82CF-878B9961B0BF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB8B7047-541D-42F8-97D4-864CD6BAF34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A8F9BD-BB15-4C23-AE9B-3C9DEA796FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0E245E4-4A47-45A5-B2F3-C08BA67697B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD01BD14-E0A9-4231-8701-ED4EA25F4C89}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,7 +79,7 @@
     <t>21,01%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>6,56%</t>
   </si>
   <si>
     <t>49,28%</t>
@@ -94,7 +94,7 @@
     <t>50,72%</t>
   </si>
   <si>
-    <t>93,41%</t>
+    <t>93,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>62,83%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,43 +127,43 @@
     <t>21,64%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo dolor menstrual le limita en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población cuyo dolor menstrual le limita en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>49,9%</t>
@@ -181,55 +181,55 @@
     <t>28,65%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>71,35%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7296438-A2CC-437A-AAEA-DD0DBF6B3E86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D2B192-9ACE-4F85-AFB6-DC4BC20B0433}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41470397-DDE4-4FBB-BB6D-99D0161C973F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9543FAE-8A51-44DF-A5F9-245131247617}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2170,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D614EB7E-00DE-42AC-82CF-878B9961B0BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CB3939-B74C-4BF7-B39F-4A1DEF639BD5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
